--- a/資料/MapData.xlsx
+++ b/資料/MapData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\SchoolTeamProject\資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Desktop\SchoolTeamProject\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021169AD-221F-4130-AA4F-568658FA1952}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12820" windowHeight="7220" firstSheet="9" activeTab="9" xr2:uid="{0BA8CC62-7BDF-4CFD-8018-FCC3EA938A4A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="7215" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="6">
   <si>
     <t>Br</t>
     <phoneticPr fontId="1"/>
@@ -47,11 +46,23 @@
     <t>p</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,9 +102,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,19 +422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6E9F78-1B7D-48F9-97E6-1F78AE3E5208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -516,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -548,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -580,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -612,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -644,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -676,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -708,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -748,19 +762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721907B2-302A-4C26-92F9-646FED49EA05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -856,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -888,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -920,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -952,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -984,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1087,336 +1101,336 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8840EF12-D0A2-40A8-B685-F0EF1D3F2AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1426,19 +1440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA41B16-61E9-453C-8818-A858553D39D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1502,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1534,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1566,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1598,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1662,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1726,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1765,19 +1779,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBDC2B1-0E2F-4CD5-B745-F4775B66F19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1841,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1873,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1937,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2065,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2104,19 +2118,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FA096-3F29-4212-9391-97AD9BC0E0CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2180,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2212,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2244,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2276,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2308,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2340,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2372,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2404,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2443,17 +2457,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D006B80-26DA-4EDD-A02E-C62753CAC5F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2485,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2517,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2581,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2709,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2780,19 +2794,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E8536C-77BF-41BB-87D8-CD94CDE6CA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2888,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2920,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2952,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3048,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3080,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3119,19 +3133,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FDC0CF-A9AC-48BA-8756-E84245CC26EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3163,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3195,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3227,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3259,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3323,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3355,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3387,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3458,19 +3472,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219FFAD9-7076-4340-B627-6786C6EDA534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="10" width="2.58203125" customWidth="1"/>
+    <col min="1" max="10" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3566,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3598,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3630,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3726,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3758,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>

--- a/資料/MapData.xlsx
+++ b/資料/MapData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Desktop\SchoolTeamProject\資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\SchoolTeamProject\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B7054-C1B4-4956-85BC-BF21436EE447}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12825" windowHeight="7215" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12830" windowHeight="7220" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,17 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="6">
-  <si>
-    <t>Br</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="11">
   <si>
     <t>g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -58,11 +51,39 @@
     <t>L</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,53 +443,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -480,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -495,12 +516,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -512,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -527,12 +548,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -544,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -559,44 +580,44 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -608,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -623,12 +644,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -640,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -655,12 +676,12 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -672,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -687,12 +708,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -704,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -719,39 +740,39 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -762,53 +783,53 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -820,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -835,12 +856,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -852,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -867,12 +888,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -884,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -899,44 +920,44 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -948,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -963,12 +984,12 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -980,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -995,12 +1016,12 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1012,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1027,12 +1048,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1044,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1059,39 +1080,39 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1101,21 +1122,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -1130,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1">
         <v>0</v>
@@ -1142,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1177,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1209,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1241,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1255,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1273,9 +1292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1302,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1337,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1401,9 +1420,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1418,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1430,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1440,21 +1459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1469,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -1481,10 +1500,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1548,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1580,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1590,11 +1609,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1612,9 +1631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1641,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1676,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1708,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1740,9 +1759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1757,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1769,31 +1788,32 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1808,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -1820,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1855,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1887,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1919,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1933,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1951,9 +1971,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1980,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2015,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2047,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2079,9 +2099,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2096,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2108,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2118,51 +2138,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2179,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2194,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2211,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2226,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2243,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2258,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2272,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2290,9 +2310,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2307,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2319,10 +2339,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2339,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2354,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2371,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2386,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2403,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2418,36 +2438,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2457,19 +2477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2484,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -2496,12 +2518,12 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2528,12 +2550,12 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2560,12 +2582,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2592,12 +2614,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2609,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2624,44 +2646,44 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2670,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2688,12 +2710,12 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2720,12 +2742,12 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2752,12 +2774,12 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2772,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2784,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2794,21 +2816,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2823,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -2835,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2870,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2902,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2934,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2948,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2966,15 +2988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2995,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3030,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3062,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3094,9 +3116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3111,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3123,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3133,21 +3155,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3162,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -3174,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3209,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3241,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3273,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3287,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3305,9 +3327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3334,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3369,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3401,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3433,9 +3455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3450,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3462,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3472,21 +3494,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="10" width="2.625" customWidth="1"/>
+    <col min="1" max="10" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3501,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1">
         <v>0</v>
@@ -3513,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3548,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3580,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3612,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3644,9 +3666,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3673,10 +3695,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3708,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3740,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3754,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3772,9 +3794,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3789,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3801,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
